--- a/outputs/DELHI5.xlsx
+++ b/outputs/DELHI5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: ABI is motivated to contribute to JabRef and would recognize that reading the available information is a necessary step to understand how and where they can contribute. ABI's comprehensive information processing style means they prefer to gather all relevant information before proceeding with actions, making this subgoal align with their approach.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page provides extensive information about JabRef, its features, how to contribute, and other relevant details. ABI's comprehensive information processing style aligns with reading through this detailed content to understand how they can contribute. Additionally, ABI is motivated to contribute to JabRef, so they will see reading this information as a necessary and meaningful step. The page is well-organized, with clear sections that guide ABI through the process, making it good enough for them to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a comprehensive amount of information about JabRef, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will likely know to read through the available information to understand how to contribute to JabRef. The detailed and structured layout of the page supports ABI in taking this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After reading the extensive information provided on the page, ABI will know that they have done the right thing and made progress toward their goal. The page contains detailed sections on features, installation, contributing, and other relevant details, which will help ABI gather the necessary information comprehensively. This aligns with ABI's comprehensive information processing style and their motivation to contribute to JabRef. The clear organization of the content ensures that ABI can see they are making progress and have the information needed to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed sections on various aspects of JabRef, including a specific section on "Contributing." This section outlines how to get involved, submit bug reports, and contribute to the project. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. By reading through this information, ABI will know they are making progress toward their goal of finding something to contribute to JabRef and will have the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. The page is well-organized and provides a logical next step for ABI to follow. Given ABI's comprehensive information processing style, they will recognize that clicking this link is the appropriate action to gather more detailed information on how to contribute. Additionally, ABI's motivation to contribute to JabRef will drive them to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contributing" section on the page clearly includes a link labeled "Learn how to help." This is a clear call to action that aligns with ABI's motivation to contribute and their need for comprehensive information. The page provides enough context for ABI to understand that clicking this link will provide further details on how to contribute, making it likely that ABI will know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking "Learn how to help," ABI will land on a well-organized page that clearly outlines various ways to contribute to JabRef. The page offers specific guidance tailored to different types of contributors, such as students, new open-source contributors, and lecturers. This structured information aligns with ABI's comprehensive information processing style, as it provides clear steps and resources for contributing. ABI will recognize that they are making progress towards their goal and will find the detailed information they need to take the next steps in contributing to JabRef.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page ABI lands on after clicking "Learn how to help" provides a clear and detailed guide on how to contribute to JabRef. It includes various sections tailored to different types of contributors (e.g., students, new to open source, looking for high-impact contributions). This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The structured and detailed information will help ABI know they are making progress toward their goal and provide all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page is clearly labeled "Contribute to JabRef" and provides detailed instructions and options for different types of contributors, such as students and new open-source contributors. This aligns with ABI's comprehensive information processing style, as the page offers specific guidance and resources. Given ABI's motivation to contribute to JabRef, they will know that reading through this page is the appropriate action to gather the necessary information on how to contribute. The clear organization and relevant content make the page good enough for ABI to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is well-structured and provides clear, detailed information on how to contribute to JabRef. It includes specific sections for different types of contributors, such as students, new open-source contributors, and those looking for high-impact projects. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear headings and organized content will help ABI know what to do at this step and feel confident in taking the action to read the page.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: While the page provides various options for contributing, it contains a lot of information, which might be overwhelming for ABI. Given ABI's low confidence in doing unfamiliar computing tasks and preference for comprehensive information, the sheer volume of options and links might make it challenging for ABI to feel certain they have done the right thing or are making progress towards their goal. ABI might not immediately know which option to choose and might feel unsure if they have all the information needed. Therefore, the page may not be entirely effective in making ABI feel confident about their progress and understanding.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear and detailed guide on how to contribute to JabRef, with specific sections for different types of contributors. This structured and comprehensive information aligns with ABI's motivation to contribute and their need for detailed information. By reading the page, ABI will know they are making progress toward their goal and will have all the necessary information to proceed. The clear headings and organized content ensure that ABI can easily find the information relevant to their needs.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The link "list of good first issues" is clearly labeled and embedded within a context that guides ABI toward finding something to contribute to JabRef. Given ABI's comprehensive information processing style, they will understand that clicking on this link will provide them with a list of beginner-friendly issues, which aligns with their goal of finding a way to contribute. Additionally, ABI's motivation to contribute will drive them to follow this clear and relevant next step. The page is well-organized and the link is easy to identify, making it good enough for ABI to take this action confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly indicates that clicking on the "list of good first issues" will provide ABI with a collection of issues suitable for beginners. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear labeling and context provided on the page make it evident that this action will help ABI find appropriate tasks to contribute to JabRef.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on the "list of good first issues," ABI will land on a GitHub page that lists beginner-friendly issues labeled as "good first issue." This page provides a clear list of specific tasks ABI can choose from, aligning with their goal of finding something to contribute. The issues are well-labeled and categorized, making it easy for ABI to understand their options and feel confident that they are making progress toward their goal. The page format is straightforward, and the information is presented in a manageable way, ensuring that ABI gets the necessary details to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page ABI lands on after clicking "list of good first issues" provides a clear list of issues labeled as "good first issue," along with additional tags indicating the type of issue (e.g., bug, enhancement). This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The structured list and clear labeling will help ABI know they are making progress toward their goal and provide all the necessary information to choose an appropriate issue to work on.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The GitHub page containing the list of "good first issues" is well-organized and clearly labeled. ABI will see a list of issues with tags like "good first issue" and "type: enhancement," making it easy to identify what each issue involves. This aligns with ABI's comprehensive information processing style, as they can read through the options and select an issue that interests them. Additionally, ABI's motivation to contribute to JabRef will drive them to click on an issue to learn more about it. The page provides a straightforward way to explore different issues, making it good enough for ABI to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear list of issues labeled as "good first issue," along with additional tags indicating the type of issue (e.g., bug, enhancement). This structured presentation aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear labeling and organization of the issues make it evident that ABI can click on any issue to learn more about it, helping them know what to do at this step and feel confident in taking the action to read the options and click on something they want to know more about.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: While the page provides detailed information about the issue, it is densely packed with technical details, graphs, and multiple comments. This extensive and technical content might be overwhelming for ABI, given their low confidence in unfamiliar computing tasks. ABI might struggle to parse through the information comprehensively and feel unsure if they have all the necessary details to proceed. Additionally, the sheer volume of information might make ABI question if they are making progress toward their goal, as it may not be immediately clear what steps they need to take next or if they are on the right track.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides detailed information about the issue, including comments and discussions, the amount of information might be overwhelming for ABI. ABI's comprehensive information processing style means they need to gather all relevant information, but the extensive and technical nature of the content might make it difficult for ABI to feel confident that they are making progress toward their goal. Additionally, ABI's low computer self-efficacy might make them feel uncertain about whether they have understood everything correctly and whether they are on the right track. The page might not provide a clear, concise summary that ABI can easily process to feel confident in their progress.</t>
         </is>
       </c>
     </row>

--- a/outputs/DELHI5.xlsx
+++ b/outputs/DELHI5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. Reading the available information is a logical step toward understanding how to contribute to JabRef. This aligns with ABI's motivation to use technology to achieve tasks and their comprehensive information processing style.</t>
+Why: ABI is motivated to accomplish the task of finding something to contribute to JabRef. Reading the available information is a crucial step in understanding how to contribute effectively. Given ABI's comprehensive information processing style, they would likely consider reading all the provided information as an essential step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive amount of information about JabRef, including features, installation, and contributing guidelines. ABI, who prefers to gather comprehensive information before acting, will find this page suitable for reading and understanding the available information. The clear sections and detailed content align with ABI's motivation to accomplish tasks and their information processing style.</t>
+Why: The page provides comprehensive information about JabRef, including sections on features, installation, bug reports, suggestions, feedback, and contributing. ABI, who prefers to gather information comprehensively before acting, will find this page suitable for reading and understanding the available information. The clear headings and structured content will help ABI know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After reading the available information on the page, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed sections on features, installation, and contributing guidelines, which are essential for understanding how to contribute. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring they have all the necessary information to proceed.</t>
+Why: If ABI reads the available information on this page, they will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed sections on contributing, including guidelines and steps to follow. This aligns with ABI's motivation to accomplish the task and their comprehensive information processing style. The structured and clear information will help ABI feel confident that they are on the right track and have the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. The page provides sufficient context and information, making it clear that clicking this link will provide further details on how to contribute. This aligns with ABI's motivation to accomplish tasks and their preference for gathering comprehensive information before taking action.</t>
+Why: The page clearly includes a section titled "Contributing" with a link labeled "Learn how to help." This is a direct and clear call to action that aligns with ABI's motivation to find something to contribute to JabRef. Given ABI's comprehensive information processing style, they will recognize that clicking this link is a logical next step to gather more detailed information on how to contribute. The page is structured well enough to guide ABI to this action without confusion.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Learn how to help," ABI will land on a page that provides detailed and categorized information on how to contribute to JabRef. The page is well-organized, offering various options based on the user's background and preferences (e.g., student, new to open source, looking for high-impact contributions). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information, ensuring they know they are making progress toward their goal and have all the necessary information to proceed.</t>
+Why: After clicking "Learn how to help," ABI lands on a page titled "Contribute to JabRef," which provides detailed and categorized information on how to contribute based on different user profiles (e.g., students, new to open source, lecturers). This page aligns with ABI's motivation to find something to contribute and their comprehensive information processing style. The clear and structured information will help ABI know they are making progress toward their goal and provide all the necessary details to proceed with contributing to JabRef.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized and provides clear, categorized information on how to contribute to JabRef. It addresses different user backgrounds and preferences, making it easy for ABI to find relevant information. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information, ensuring they know what to do at this step and that the page is good enough for them to take this action.</t>
+Why: The page is clearly titled "Contribute to JabRef" and provides detailed, categorized information on how to contribute based on different user profiles (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to find something to contribute and their comprehensive information processing style. The structured and clear information will help ABI know what to do at this step and feel confident that the page is good enough to take the action of reading the available information.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides clear, categorized information on how to contribute to JabRef, addressing different user backgrounds and preferences. This ensures that ABI will know they are making progress toward their goal and have all the necessary information. The detailed and organized content aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information, confirming that they did the right thing and are on the right track.</t>
+Why: If ABI reads the page, they will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed and categorized information on various ways to contribute, tailored to different user profiles. This aligns with ABI's motivation to contribute and their comprehensive information processing style. The structured and clear information ensures that ABI gets all the necessary details to proceed, confirming that they did the right thing and are on the right track.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "list of good first issues" link is clearly labeled and contextually placed under sections relevant to different types of contributors. This makes it clear to ABI that clicking this link will provide a list of issues suitable for beginners, aligning with their goal of finding something to contribute to JabRef. The page is well-organized and provides sufficient context, making it easy for ABI to know what to do at this step and feel confident in taking this action.</t>
+Why: The page provides clear instructions and links, such as "list of good first issues," which are explicitly mentioned as resources for finding something to contribute to. This aligns with ABI's motivation to find a contribution opportunity and their comprehensive information processing style. The page is well-structured and provides clear guidance, making it easy for ABI to know what to do at this step and feel confident in taking the action of clicking the link.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "list of good first issues," ABI will land on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for beginners, which aligns with ABI's goal of finding something to contribute to JabRef. The detailed labels and descriptions of each issue ensure that ABI knows they are making progress toward their goal and have all the necessary information to choose an appropriate task. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information.</t>
+Why: After clicking on the "list of good first issues," ABI lands on a page that lists specific issues labeled as "good first issue." This page provides detailed information about each issue, including descriptions, labels, and other relevant details. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear presentation of issues will help ABI know that they did the right thing and are making progress toward their goal, as they now have specific tasks they can choose to work on.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized with a clear list of issues labeled as "good first issue," along with additional tags that describe the type of issue (e.g., bug, enhancement). This makes it easy for ABI to read through the options and click on something they want to know more about. The detailed labels and descriptions provide sufficient context, ensuring ABI knows what to do at this step and feels confident in taking this action. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information.</t>
+Why: The page lists various issues labeled as "good first issue," each with a brief description and relevant tags. This clear presentation aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The page is well-structured, making it easy for ABI to read the options and click on something they want to know more about. The detailed information provided for each issue will help ABI understand what to do at this step and feel confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page ABI lands on after clicking an issue contains a lot of detailed information, including technical discussions and visual data. While this information is comprehensive, it may be overwhelming for ABI, who has low confidence in unfamiliar computing tasks and prefers clear, concise information. The extensive comments and technical jargon might make it difficult for ABI to immediately know they are making progress toward their goal and to extract all the necessary information efficiently. This could hinder their ability to feel confident that they did the right thing and are on the right track.</t>
+Why: While the page provides detailed information about the issue, including comments and discussions, it may be overwhelming for ABI due to the extensive and technical nature of the content. ABI's comprehensive information processing style means they need clear and structured information to feel confident they are making progress. The technical details and extensive discussions might be difficult for ABI to process, especially given their low computer self-efficacy. ABI might struggle to determine if they are making progress toward their goal and if they have all the information they need.</t>
         </is>
       </c>
     </row>
